--- a/Curation/Media/KBASE_MEDIAS/PROMM_pyruvate.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/PROMM_pyruvate.xlsx
@@ -687,7 +687,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -707,7 +707,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -747,7 +747,7 @@
         <v>-100</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -767,7 +767,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -787,7 +787,7 @@
         <v>-100</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0.001</v>
@@ -807,7 +807,7 @@
         <v>-100</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0.001</v>
@@ -827,7 +827,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -847,7 +847,7 @@
         <v>-100</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>0.001</v>
@@ -867,7 +867,7 @@
         <v>-100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0.001</v>
@@ -907,7 +907,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -927,7 +927,7 @@
         <v>-100</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0.001</v>
@@ -947,7 +947,7 @@
         <v>-100</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0.001</v>
@@ -967,7 +967,7 @@
         <v>-100</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>0.001</v>
@@ -1027,7 +1027,7 @@
         <v>-100</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0.001</v>
@@ -1047,7 +1047,7 @@
         <v>-100</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0.001</v>
@@ -1087,7 +1087,7 @@
         <v>-100</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>0.001</v>
@@ -1107,7 +1107,7 @@
         <v>-100</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>0.001</v>
@@ -1127,7 +1127,7 @@
         <v>-100</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <v>0.001</v>
@@ -1167,7 +1167,7 @@
         <v>-100</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>0.001</v>
@@ -1227,7 +1227,7 @@
         <v>-100</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>0.001</v>
